--- a/differents_things/projects/CV/Globallogic/Checklist QA_shorts.xlsx
+++ b/differents_things/projects/CV/Globallogic/Checklist QA_shorts.xlsx
@@ -263,9 +263,6 @@
 ps axo pid,ppid,pgrp,tty,tpgid,sess,comm |awk '$2==1' |awk '$1==$3'</t>
   </si>
   <si>
-    <t>df</t>
-  </si>
-  <si>
     <t>route
 ip route show
 cat /etc/config/network</t>
@@ -360,6 +357,10 @@
     <t>fm/am
 цифровьх модуляций с
 штук тридцать</t>
+  </si>
+  <si>
+    <t>df -h
+lsblk</t>
   </si>
 </sst>
 </file>
@@ -837,8 +838,8 @@
   </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B20" sqref="B19:B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -937,12 +938,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>71</v>
+      <c r="B13" s="19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +956,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -996,7 +997,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
@@ -1004,7 +1005,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -1032,7 +1033,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -1045,7 +1046,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -1053,7 +1054,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -1061,7 +1062,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -1069,7 +1070,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -1077,7 +1078,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -1100,7 +1101,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1129,7 @@
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1137,7 @@
         <v>43</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
@@ -1144,7 +1145,7 @@
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
@@ -1152,7 +1153,7 @@
         <v>45</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -1175,7 +1176,7 @@
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -1188,7 +1189,7 @@
         <v>51</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -1201,7 +1202,7 @@
         <v>53</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1220,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -1237,7 +1238,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">

--- a/differents_things/projects/CV/Globallogic/Checklist QA_shorts.xlsx
+++ b/differents_things/projects/CV/Globallogic/Checklist QA_shorts.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Raspberry\differents_things\projects\CV\Globallogic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ignore/Documents/GitHub/Raspberry/differents_things/projects/CV/Globallogic/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694C93E4-B847-4646-A8F0-3A37CEACB821}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42525" yWindow="465" windowWidth="33300" windowHeight="18735"/>
+    <workbookView xWindow="40600" yWindow="1000" windowWidth="33300" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Trainee" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="92">
   <si>
     <t>Linux:</t>
   </si>
@@ -223,7 +224,130 @@
 kill</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>pstree
+ps -aux | less
+ps aux --sort=-%mem</t>
+  </si>
+  <si>
+    <t>var/log
+Midnight Commander
+less /var/log/daemon.log
+grep 'eth0' /var/log/syslog
+grep 'eth0' /var/log/syslog &gt; log.txt
+tail -f /var/log/syslog</t>
+  </si>
+  <si>
+    <t>/etc/init.d
+sudo service ssh restart
+start/stop/restart/reload/status</t>
+  </si>
+  <si>
+    <t>top -o +S
+ps -lA | grep '^. Z'
+ps axo pid,ppid,pgrp,tty,tpgid,sess,comm |awk '$2==1' |awk '$1==$3'</t>
+  </si>
+  <si>
+    <t>route
+ip route show
+cat /etc/config/network</t>
+  </si>
+  <si>
+    <t>7. Прикладной 
+6. Представления
+5. Сеансовый
+4. Транспортный 
+3. Сетевой
+2. Канальный 
+1. Физический</t>
+  </si>
+  <si>
+    <t>L2 - Data Link Layer
+по MAC адресу сетевого устройства
+L3 - Network Layer
+по IP адресу 
+L4 - Transport Layer
+сегментация происходи по протоколу TCP UDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIND
+53 port
+/etc/named.conf </t>
+  </si>
+  <si>
+    <t>64 bytes from 8.8.8.8: icmp_seq=1 ttl=116 time=305 ms
+ ICMP</t>
+  </si>
+  <si>
+    <t>openwrt (10.10.1.1)  1.145 ms  0.769 ms  0.703 ms</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 255.255.255.0</t>
+  </si>
+  <si>
+    <t>IgNOrEs-iMac.lan         ether   
+d8:cb:8a:b1:20:d8   C  eth0</t>
+  </si>
+  <si>
+    <t>NAT</t>
+  </si>
+  <si>
+    <t>Виртуал нетворк</t>
+  </si>
+  <si>
+    <t>єто позволяет определить 
+єффективность приема и 
+передачи  сигнала на расстонии
+и измеряеться в Дицибелах</t>
+  </si>
+  <si>
+    <t>имеет єлипсообразную форму</t>
+  </si>
+  <si>
+    <t>длинна волньі 
+скорость света 
+/
+на частоту
+полоса</t>
+  </si>
+  <si>
+    <t>распространении волньі
+отражение</t>
+  </si>
+  <si>
+    <t>монополь / диполь 
+директорная / антена с отражателем
+дианрамма направвленности
+коєфициент усилениея антеньі
+частота в в герцах 
+а єффективность в дицибелах
+директорная / антена с отражателем</t>
+  </si>
+  <si>
+    <t>802.11n 300 мегабит
+2.4 гигагерца 14
+802.11ac 1 гигабита 
+channel 42
+802.11
+ax
+4×3.5Gbps = 14Gbps</t>
+  </si>
+  <si>
+    <t>видьі модуляции</t>
+  </si>
+  <si>
+    <t>линейная круговая єлиптическая</t>
+  </si>
+  <si>
+    <t>fm/am
+цифровьх модуляций с
+штук тридцать</t>
+  </si>
+  <si>
+    <t>df -h
+lsblk</t>
+  </si>
+  <si>
+    <t>"pi@raspberrypi:~ $ top -o +%MEM 
 (PID USER PR NI VIRT RES SHR S %CPU %MEM TIME+ COMMAND)
 PID - айди процесса  
 USER - какой пользователь запустил процесс
@@ -234,139 +358,19 @@
 %CPU - то на сколько используеться процьік
 %MEM - скока жрет прога мозгов
 TIME+ - сколько времени работает программа/демон
-COMMAND - имя проги точнее сказать процесс запущенньій</t>
-  </si>
-  <si>
-    <t>pstree
-ps -aux | less
-ps aux --sort=-%mem</t>
-  </si>
-  <si>
-    <t>var/log
-Midnight Commander
-less /var/log/daemon.log
-grep 'eth0' /var/log/syslog
-grep 'eth0' /var/log/syslog &gt; log.txt
-tail -f /var/log/syslog</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sudo apt-get install tcpdump</t>
-  </si>
-  <si>
-    <t>/etc/init.d
-sudo service ssh restart
-start/stop/restart/reload/status</t>
-  </si>
-  <si>
-    <t>top -o +S
-ps -lA | grep '^. Z'
-ps axo pid,ppid,pgrp,tty,tpgid,sess,comm |awk '$2==1' |awk '$1==$3'</t>
-  </si>
-  <si>
-    <t>route
-ip route show
-cat /etc/config/network</t>
-  </si>
-  <si>
-    <t>7. Прикладной 
-6. Представления
-5. Сеансовый
-4. Транспортный 
-3. Сетевой
-2. Канальный 
-1. Физический</t>
-  </si>
-  <si>
-    <t>L2 - Data Link Layer
-по MAC адресу сетевого устройства
-L3 - Network Layer
-по IP адресу 
-L4 - Transport Layer
-сегментация происходи по протоколу TCP UDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIND
-53 port
-/etc/named.conf </t>
-  </si>
-  <si>
-    <t>64 bytes from 8.8.8.8: icmp_seq=1 ttl=116 time=305 ms
- ICMP</t>
-  </si>
-  <si>
-    <t>openwrt (10.10.1.1)  1.145 ms  0.769 ms  0.703 ms</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 255.255.255.0</t>
-  </si>
-  <si>
-    <t>IgNOrEs-iMac.lan         ether   
-d8:cb:8a:b1:20:d8   C  eth0</t>
-  </si>
-  <si>
-    <t>NAT</t>
-  </si>
-  <si>
-    <t>Виртуал нетворк</t>
-  </si>
-  <si>
-    <t>єто позволяет определить 
-єффективность приема и 
-передачи  сигнала на расстонии
-и измеряеться в Дицибелах</t>
-  </si>
-  <si>
-    <t>имеет єлипсообразную форму</t>
-  </si>
-  <si>
-    <t>длинна волньі 
-скорость света 
-/
-на частоту
-полоса</t>
-  </si>
-  <si>
-    <t>распространении волньі
-отражение</t>
-  </si>
-  <si>
-    <t>монополь / диполь 
-директорная / антена с отражателем
-дианрамма направвленности
-коєфициент усилениея антеньі
-частота в в герцах 
-а єффективность в дицибелах
-директорная / антена с отражателем</t>
-  </si>
-  <si>
-    <t>802.11n 300 мегабит
-2.4 гигагерца 14
-802.11ac 1 гигабита 
-channel 42
-802.11
-ax
-4×3.5Gbps = 14Gbps</t>
-  </si>
-  <si>
-    <t>видьі модуляции</t>
-  </si>
-  <si>
-    <t>линейная круговая єлиптическая</t>
-  </si>
-  <si>
-    <t>fm/am
-цифровьх модуляций с
-штук тридцать</t>
-  </si>
-  <si>
-    <t>df -h
-lsblk</t>
+COMMAND - имя проги точнее сказать процесс запущенньій"</t>
+  </si>
+  <si>
+    <t>поставлю tcpdump или tcpflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -396,7 +400,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -431,6 +435,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -498,7 +508,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -547,6 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,429 +843,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="55" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="224" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="C6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="76.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="20"/>
+    </row>
+    <row r="8" spans="1:4" ht="84" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="20"/>
+    </row>
+    <row r="12" spans="1:4" ht="56" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="98" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="42" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>27</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A46" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="C46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" ht="63.75" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A48" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28" x14ac:dyDescent="0.15">
       <c r="A49" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A50" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="17" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" ht="102" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A53" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="C53" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="9" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A55" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A56" s="9" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A57" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="C57" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A58" s="9" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A59" s="9" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A60" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="C60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A62" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="126" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A64" s="15" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="15"/>
+      <c r="C65" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="J1:J2">
+    <dataValidation type="list" allowBlank="1" showDropDown="1" sqref="J1:J2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B17 B20:B42 B46:B65">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B17 B20:B42 B46:B65" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1264,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1272,132 +1542,132 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="51.42578125" customWidth="1"/>
+    <col min="1" max="1" width="51.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>47</v>
       </c>
